--- a/application/cake-shop/cakeshop-database-specification.xlsx
+++ b/application/cake-shop/cakeshop-database-specification.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC99527-CD5F-42B1-A504-1BD2EDBD1ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BEDB6B-0D78-4839-9C15-8257CF1B3934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManamgementSystem" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
+    <sheet name="Customers" sheetId="2" r:id="rId2"/>
     <sheet name="Goods" sheetId="3" r:id="rId3"/>
     <sheet name="Order" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="84">
   <si>
     <t>Field</t>
   </si>
@@ -174,15 +174,6 @@
     <t>产品分类</t>
   </si>
   <si>
-    <t>User: 记录用户信息</t>
-  </si>
-  <si>
-    <t>UserBirthday</t>
-  </si>
-  <si>
-    <t>UserDeliveryAddress</t>
-  </si>
-  <si>
     <t>Goods</t>
   </si>
   <si>
@@ -277,6 +268,18 @@
   </si>
   <si>
     <t>OrderHistory</t>
+  </si>
+  <si>
+    <t>Customers: 记录用户信息</t>
+  </si>
+  <si>
+    <t>CustomersBirthday</t>
+  </si>
+  <si>
+    <t>CustomersDeliveryAddress</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -604,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,54 +621,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -679,13 +672,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -699,16 +692,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -719,13 +712,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -737,7 +730,30 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -748,7 +764,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +778,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -892,7 +908,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1022,7 +1038,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1179,7 +1195,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1309,7 +1325,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1345,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1379,13 +1395,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1399,13 +1415,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1419,13 +1435,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1439,13 +1455,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1459,13 +1475,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1504,7 +1520,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1540,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1574,13 +1590,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1594,7 +1610,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1614,7 +1630,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1634,7 +1650,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -1654,13 +1670,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1674,7 +1690,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1694,7 +1710,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1714,13 +1730,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1734,13 +1750,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1754,13 +1770,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1774,13 +1790,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>

--- a/application/cake-shop/cakeshop-database-specification.xlsx
+++ b/application/cake-shop/cakeshop-database-specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BEDB6B-0D78-4839-9C15-8257CF1B3934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F48AA7-2D7F-42EB-8981-9D7FCAED5F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManamgementSystem" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="110">
   <si>
     <t>Field</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Unique</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>Null</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>系统中用户生日的唯一标识</t>
   </si>
   <si>
-    <t>UserSysId</t>
-  </si>
-  <si>
     <t>BirthdayDate</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>商品描述</t>
   </si>
   <si>
-    <t>产品分类</t>
-  </si>
-  <si>
     <t>Goods</t>
   </si>
   <si>
@@ -222,18 +213,9 @@
     <t>CreateDate</t>
   </si>
   <si>
-    <t>Datetime</t>
-  </si>
-  <si>
     <t>订单创建信息</t>
   </si>
   <si>
-    <t>UserPhoneNumber</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>DeliveryAddress</t>
   </si>
   <si>
@@ -243,9 +225,6 @@
     <t>发票信息</t>
   </si>
   <si>
-    <t>GoodsName</t>
-  </si>
-  <si>
     <t>商品规格</t>
   </si>
   <si>
@@ -270,16 +249,115 @@
     <t>OrderHistory</t>
   </si>
   <si>
-    <t>Customers: 记录用户信息</t>
-  </si>
-  <si>
-    <t>CustomersBirthday</t>
-  </si>
-  <si>
-    <t>CustomersDeliveryAddress</t>
-  </si>
-  <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>unsigned int</t>
+  </si>
+  <si>
+    <t>主键 auto increment</t>
+  </si>
+  <si>
+    <t>Customer: 记录用户信息</t>
+  </si>
+  <si>
+    <t>CustomerBirthday</t>
+  </si>
+  <si>
+    <t>CustomerDeliveryAddress</t>
+  </si>
+  <si>
+    <t>中文商品名称</t>
+  </si>
+  <si>
+    <t>ZhName</t>
+  </si>
+  <si>
+    <t>EnName</t>
+  </si>
+  <si>
+    <t>英文商品名称</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Enum('OnShelf','OffShelf')</t>
+  </si>
+  <si>
+    <t>商品状态</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>CategorySysId</t>
+  </si>
+  <si>
+    <t>商品分类sysid</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>商品分类子分类</t>
+  </si>
+  <si>
+    <t>GoodsExtension</t>
+  </si>
+  <si>
+    <t>TagertSysId</t>
+  </si>
+  <si>
+    <t>扩展的指向的表行</t>
+  </si>
+  <si>
+    <t>扩展的指向SysId</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>商品SysId</t>
+  </si>
+  <si>
+    <t>decimal(5,2)</t>
+  </si>
+  <si>
+    <t>varchar(19)</t>
+  </si>
+  <si>
+    <t>CustomerSysId</t>
+  </si>
+  <si>
+    <t>CustomerPhoneNumber</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>OrderGoodsHistory</t>
+  </si>
+  <si>
+    <t>GoodsEnName</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>GoodsCategory</t>
+  </si>
+  <si>
+    <t>商品品类</t>
   </si>
 </sst>
 </file>
@@ -607,22 +685,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -644,110 +722,130 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA830E8C-0807-4C41-BAEB-4E6681F66675}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +876,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -800,376 +898,436 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,23 +1337,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1352B1F5-9745-4365-B80B-D729E8A840D3}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1217,286 +1378,668 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1505,22 +2048,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2196F9D8-747D-42DD-AD91-23C4CBEF1BC8}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1542,275 +2085,386 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/application/cake-shop/cakeshop-database-specification.xlsx
+++ b/application/cake-shop/cakeshop-database-specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F48AA7-2D7F-42EB-8981-9D7FCAED5F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D79C9-C7EC-4E3C-BCF3-C71EE8553630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManamgementSystem" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="116">
   <si>
     <t>Field</t>
   </si>
@@ -126,9 +126,6 @@
     <t>BirthdayDate</t>
   </si>
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
     <t>用户生日时间</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>商品名称</t>
   </si>
   <si>
-    <t>商品描述</t>
-  </si>
-  <si>
     <t>Goods</t>
   </si>
   <si>
@@ -222,12 +216,6 @@
     <t>Receipt</t>
   </si>
   <si>
-    <t>发票信息</t>
-  </si>
-  <si>
-    <t>商品规格</t>
-  </si>
-  <si>
     <t>GoodsPrice</t>
   </si>
   <si>
@@ -267,9 +255,6 @@
     <t>CustomerBirthday</t>
   </si>
   <si>
-    <t>CustomerDeliveryAddress</t>
-  </si>
-  <si>
     <t>中文商品名称</t>
   </si>
   <si>
@@ -300,18 +285,9 @@
     <t>商品分类</t>
   </si>
   <si>
-    <t>CategorySysId</t>
-  </si>
-  <si>
     <t>商品分类sysid</t>
   </si>
   <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>商品分类子分类</t>
-  </si>
-  <si>
     <t>GoodsExtension</t>
   </si>
   <si>
@@ -330,9 +306,6 @@
     <t>商品SysId</t>
   </si>
   <si>
-    <t>decimal(5,2)</t>
-  </si>
-  <si>
     <t>varchar(19)</t>
   </si>
   <si>
@@ -348,16 +321,65 @@
     <t>OrderGoodsHistory</t>
   </si>
   <si>
-    <t>GoodsEnName</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
     <t>GoodsCategory</t>
   </si>
   <si>
-    <t>商品品类</t>
+    <t>ParentSysId</t>
+  </si>
+  <si>
+    <t>商品描述, Json format
+{ 
+   comments: "",
+   material: "奶油;鸡蛋",
+}</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>配送联系电话</t>
+  </si>
+  <si>
+    <t>DeliveryDateTime</t>
+  </si>
+  <si>
+    <t>配送时间</t>
+  </si>
+  <si>
+    <t>发票信息，以;为分隔符</t>
+  </si>
+  <si>
+    <t>配送地址，以;为分隔符</t>
+  </si>
+  <si>
+    <t>OrderSysId</t>
+  </si>
+  <si>
+    <t>系统中订单商品唯一标识</t>
+  </si>
+  <si>
+    <t>Order sysid</t>
+  </si>
+  <si>
+    <t>GoodsZhName</t>
+  </si>
+  <si>
+    <t>商品规格，以;为分隔符</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>订单总价</t>
+  </si>
+  <si>
+    <t>CustomerDelivery</t>
   </si>
 </sst>
 </file>
@@ -399,11 +421,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +728,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -722,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -730,13 +758,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -859,24 +887,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA830E8C-0807-4C41-BAEB-4E6681F66675}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -898,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -906,13 +934,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1026,7 +1054,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1048,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1056,13 +1084,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1116,7 +1144,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1139,10 +1167,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -1156,13 +1184,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1176,7 +1204,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1198,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>4</v>
@@ -1206,13 +1234,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1232,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1266,7 +1294,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1286,41 +1314,52 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1337,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1352B1F5-9745-4365-B80B-D729E8A840D3}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1395,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1378,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -1386,13 +1425,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1412,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1446,13 +1485,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1466,13 +1505,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1484,105 +1523,105 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1596,19 +1635,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1616,19 +1655,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1636,19 +1675,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -1656,83 +1695,83 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -1746,19 +1785,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1766,19 +1805,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -1789,7 +1828,7 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
@@ -1798,7 +1837,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -1809,7 +1848,7 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -1829,10 +1868,10 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1846,10 +1885,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -1864,65 +1903,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>4</v>
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1936,19 +1975,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -1956,16 +1995,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -1976,70 +2015,30 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2048,22 +2047,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2196F9D8-747D-42DD-AD91-23C4CBEF1BC8}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2085,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2093,13 +2092,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -2119,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -2153,13 +2152,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2173,7 +2172,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -2193,7 +2192,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2213,13 +2212,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -2233,13 +2232,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -2253,13 +2252,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2271,91 +2270,91 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -2363,16 +2362,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -2383,19 +2382,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -2403,39 +2402,30 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -2443,28 +2433,88 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/application/cake-shop/cakeshop-database-specification.xlsx
+++ b/application/cake-shop/cakeshop-database-specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D79C9-C7EC-4E3C-BCF3-C71EE8553630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E361DD5-BDEA-4A85-995F-E9EBB6BECA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManamgementSystem" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
   <si>
     <t>Field</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>CustomerDelivery</t>
+  </si>
+  <si>
+    <t>DeliveryPhoneNumber</t>
+  </si>
+  <si>
+    <t>配送电话</t>
   </si>
 </sst>
 </file>
@@ -425,13 +431,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,14 +733,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -889,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA830E8C-0807-4C41-BAEB-4E6681F66675}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -903,14 +909,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1053,14 +1059,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1203,14 +1209,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1323,23 +1329,23 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1378,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1352B1F5-9745-4365-B80B-D729E8A840D3}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,14 +1400,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1523,23 +1529,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1564,14 +1570,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1714,14 +1720,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1904,14 +1910,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2047,9 +2053,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2196F9D8-747D-42DD-AD91-23C4CBEF1BC8}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2061,14 +2067,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2212,19 +2218,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -2232,13 +2238,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -2252,13 +2258,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2272,13 +2278,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -2292,83 +2298,83 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -2402,44 +2408,44 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -2473,13 +2479,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -2493,28 +2499,48 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/application/cake-shop/cakeshop-database-specification.xlsx
+++ b/application/cake-shop/cakeshop-database-specification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E361DD5-BDEA-4A85-995F-E9EBB6BECA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EDFBD4-27CE-4B73-B70C-515C321CE206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Order" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="119">
   <si>
     <t>Field</t>
   </si>
@@ -386,6 +387,9 @@
   </si>
   <si>
     <t>配送电话</t>
+  </si>
+  <si>
+    <t>DeliveryCustomerName</t>
   </si>
 </sst>
 </file>
@@ -895,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA830E8C-0807-4C41-BAEB-4E6681F66675}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1384,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1352B1F5-9745-4365-B80B-D729E8A840D3}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1838,7 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
@@ -2053,17 +2057,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2196F9D8-747D-42DD-AD91-23C4CBEF1BC8}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,19 +2222,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -2238,19 +2242,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -2258,13 +2262,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2278,13 +2282,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -2298,13 +2302,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -2318,83 +2322,83 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -2408,19 +2412,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -2428,44 +2432,44 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -2479,19 +2483,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -2499,13 +2503,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -2519,28 +2523,48 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/application/cake-shop/cakeshop-database-specification.xlsx
+++ b/application/cake-shop/cakeshop-database-specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-diya\Repo\LucasNote\application\cake-shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EDFBD4-27CE-4B73-B70C-515C321CE206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F43389-E2CC-4563-82D7-CAE42F329EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManamgementSystem" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Order" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="121">
   <si>
     <t>Field</t>
   </si>
@@ -390,6 +389,12 @@
   </si>
   <si>
     <t>DeliveryCustomerName</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>配送联系人姓名</t>
   </si>
 </sst>
 </file>
@@ -897,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA830E8C-0807-4C41-BAEB-4E6681F66675}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,53 +1329,82 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>102</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2196F9D8-747D-42DD-AD91-23C4CBEF1BC8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
